--- a/public/QAFORM.xlsx
+++ b/public/QAFORM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>KEY QUALITY METRICS</t>
   </si>
@@ -450,6 +450,9 @@
   </si>
   <si>
     <t>QA SCORE (%):</t>
+  </si>
+  <si>
+    <t>Processed By:</t>
   </si>
 </sst>
 </file>
@@ -698,16 +701,13 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -718,8 +718,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1116,34 +1119,39 @@
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="30"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="30"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="32"/>
+      <c r="C5" s="36"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="33"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="C6" s="37"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="31"/>
+    </row>
     <row r="8" spans="1:8" ht="26.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>0</v>
@@ -1159,7 +1167,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -1171,7 +1179,7 @@
       <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="12" t="s">
         <v>19</v>
       </c>
@@ -1181,7 +1189,7 @@
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="35" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -1193,7 +1201,7 @@
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="14" t="s">
         <v>21</v>
       </c>
@@ -1227,7 +1235,7 @@
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="33" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -1239,7 +1247,7 @@
       <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="14" t="s">
         <v>25</v>
       </c>
@@ -1249,7 +1257,7 @@
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="14" t="s">
         <v>26</v>
       </c>
@@ -1259,7 +1267,7 @@
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="14" t="s">
         <v>27</v>
       </c>
@@ -1269,7 +1277,7 @@
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="14" t="s">
         <v>28</v>
       </c>
@@ -1279,7 +1287,7 @@
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="34"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="14" t="s">
         <v>29</v>
       </c>
@@ -1289,7 +1297,7 @@
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -1301,7 +1309,7 @@
       <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="34"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="14" t="s">
         <v>31</v>
       </c>
@@ -1311,7 +1319,7 @@
       <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="14" t="s">
         <v>32</v>
       </c>
@@ -1321,7 +1329,7 @@
       <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="34"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="14" t="s">
         <v>33</v>
       </c>
@@ -1331,7 +1339,7 @@
       <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="34"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="14" t="s">
         <v>34</v>
       </c>
@@ -1341,7 +1349,7 @@
       <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="34"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="14" t="s">
         <v>35</v>
       </c>
@@ -1351,7 +1359,7 @@
       <c r="D26" s="11"/>
     </row>
     <row r="27" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="14" t="s">
@@ -1363,7 +1371,7 @@
       <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="34"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="14" t="s">
         <v>37</v>
       </c>
@@ -1373,7 +1381,7 @@
       <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="33" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="18" t="s">
@@ -1385,7 +1393,7 @@
       <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A30" s="34"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="19" t="s">
         <v>39</v>
       </c>
@@ -1395,7 +1403,7 @@
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="19" t="s">
@@ -1407,7 +1415,7 @@
       <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="34"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="19" t="s">
         <v>44</v>
       </c>
@@ -1417,7 +1425,7 @@
       <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="34"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="19" t="s">
         <v>45</v>
       </c>
@@ -1427,7 +1435,7 @@
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="34"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="19" t="s">
         <v>46</v>
       </c>
@@ -1437,7 +1445,7 @@
       <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="20" t="s">
@@ -1449,7 +1457,7 @@
       <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="34"/>
+      <c r="A36" s="33"/>
       <c r="B36" s="14" t="s">
         <v>41</v>
       </c>
@@ -1471,7 +1479,7 @@
       <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="34" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="19" t="s">
@@ -1483,7 +1491,7 @@
       <c r="D38" s="11"/>
     </row>
     <row r="39" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="35"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="19" t="s">
         <v>47</v>
       </c>
@@ -1493,7 +1501,7 @@
       <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:4" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="35"/>
+      <c r="A40" s="34"/>
       <c r="B40" s="19" t="s">
         <v>49</v>
       </c>
